--- a/WinPMS/Config/ConformityReportTemplate/Radar/SensorTest/List of the Acceptance Criteria for Radar XXX Sensor Test.xlsx
+++ b/WinPMS/Config/ConformityReportTemplate/Radar/SensorTest/List of the Acceptance Criteria for Radar XXX Sensor Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VNE_Work\CSharp\PMS\WinPMS\Config\ConformityReportTemplate\Radar\SensorTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDF265-E3EB-4D21-8713-4C7353201CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749FACC8-4CDF-427B-8A8D-0F794E0FD9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="97">
   <si>
     <t>Part name:</t>
   </si>
@@ -420,13 +420,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes, testers achieved C\T 20s</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -441,6 +434,9 @@
   <si>
     <t>Softcopy</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEngineer</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1232,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1252,13 +1244,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1279,14 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,6 +1311,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1374,6 +1360,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11741,8 +11737,8 @@
   </sheetPr>
   <dimension ref="A1:G4795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11757,26 +11753,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -11791,11 +11787,11 @@
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="77"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
@@ -11808,11 +11804,11 @@
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="16" t="s">
         <v>27</v>
       </c>
@@ -11825,11 +11821,11 @@
       <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="16" t="s">
         <v>27</v>
       </c>
@@ -11842,7 +11838,7 @@
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="78"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="22"/>
       <c r="G6" s="44"/>
     </row>
@@ -11910,64 +11906,64 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="85" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="79" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="83"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="84"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="32"/>
       <c r="E15" s="30"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>68</v>
@@ -11977,16 +11973,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>68</v>
@@ -11996,35 +11992,35 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>68</v>
@@ -12034,16 +12030,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>68</v>
@@ -12053,27 +12049,27 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="34"/>
       <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>68</v>
@@ -12083,16 +12079,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>68</v>
@@ -12102,16 +12098,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>68</v>
@@ -12121,16 +12117,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>68</v>
@@ -12140,16 +12136,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>68</v>
@@ -12159,27 +12155,27 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="34"/>
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>68</v>
@@ -12189,16 +12185,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>68</v>
@@ -12208,92 +12204,92 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F32" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>68</v>
@@ -12303,16 +12299,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>68</v>
@@ -12322,16 +12318,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>68</v>
@@ -12341,35 +12337,35 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F38" s="33" t="s">
         <v>68</v>
@@ -12379,16 +12375,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>68</v>
@@ -12398,407 +12394,407 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="34"/>
       <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="54"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>68</v>
@@ -12808,84 +12804,84 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="59"/>
-      <c r="C62" s="60"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="37"/>
     </row>
     <row r="63" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F63" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="63"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F65" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F66" s="29" t="s">
         <v>68</v>
@@ -12895,41 +12891,41 @@
       </c>
     </row>
     <row r="67" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F67" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>68</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -31833,32 +31829,26 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A37:C37"/>
@@ -31875,29 +31865,35 @@
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B8:B10">
